--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
@@ -540,10 +540,10 @@
         <v>5.005563</v>
       </c>
       <c r="I2">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J2">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N2">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q2">
-        <v>16.549824537539</v>
+        <v>2.407739206798</v>
       </c>
       <c r="R2">
-        <v>148.948420837851</v>
+        <v>21.669652861182</v>
       </c>
       <c r="S2">
-        <v>0.1555718453626661</v>
+        <v>0.02671611029276343</v>
       </c>
       <c r="T2">
-        <v>0.1555718453626661</v>
+        <v>0.02671611029276343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>5.005563</v>
       </c>
       <c r="I3">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J3">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N3">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q3">
-        <v>48.72667693896766</v>
+        <v>48.72667693896767</v>
       </c>
       <c r="R3">
-        <v>438.540092450709</v>
+        <v>438.5400924507091</v>
       </c>
       <c r="S3">
-        <v>0.458041052495225</v>
+        <v>0.5406678894565708</v>
       </c>
       <c r="T3">
-        <v>0.4580410524952251</v>
+        <v>0.5406678894565708</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>5.005563</v>
       </c>
       <c r="I4">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J4">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N4">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q4">
-        <v>37.66825812707701</v>
+        <v>31.986553688163</v>
       </c>
       <c r="R4">
-        <v>339.014323143693</v>
+        <v>287.878983193467</v>
       </c>
       <c r="S4">
-        <v>0.3540895805350954</v>
+        <v>0.3549206217208289</v>
       </c>
       <c r="T4">
-        <v>0.3540895805350954</v>
+        <v>0.3549206217208289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H5">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I5">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J5">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N5">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q5">
-        <v>0.5523581137056667</v>
+        <v>0.202829092166</v>
       </c>
       <c r="R5">
-        <v>4.971223023351</v>
+        <v>1.825461829494</v>
       </c>
       <c r="S5">
-        <v>0.005192282906402953</v>
+        <v>0.002250577795796366</v>
       </c>
       <c r="T5">
-        <v>0.005192282906402953</v>
+        <v>0.002250577795796366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H6">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I6">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J6">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N6">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q6">
-        <v>1.626275571689889</v>
+        <v>4.104758364150334</v>
       </c>
       <c r="R6">
-        <v>14.636480145209</v>
+        <v>36.942825277353</v>
       </c>
       <c r="S6">
-        <v>0.01528733378303495</v>
+        <v>0.04554611931066329</v>
       </c>
       <c r="T6">
-        <v>0.01528733378303495</v>
+        <v>0.04554611931066329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H7">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I7">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J7">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N7">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q7">
-        <v>1.257195685577</v>
+        <v>2.694562445871</v>
       </c>
       <c r="R7">
-        <v>11.314761170193</v>
+        <v>24.251062012839</v>
       </c>
       <c r="S7">
-        <v>0.01181790491757563</v>
+        <v>0.02989868142337708</v>
       </c>
       <c r="T7">
-        <v>0.01181790491757563</v>
+        <v>0.02989868142337708</v>
       </c>
     </row>
   </sheetData>
